--- a/Document/TestReport/LowHope_TestSystem_Report.xlsx
+++ b/Document/TestReport/LowHope_TestSystem_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="System_Test" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -426,9 +425,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,22 +467,25 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -507,53 +506,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E42455F5-364A-4B81-B04F-281181F87F3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11801475" y="1104900"/>
-          <a:ext cx="5334000" cy="1228725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,6 +584,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -667,6 +636,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,7 +832,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -867,229 +853,229 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>5</v>
       </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>25</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>33</v>
       </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
         <v>3</v>
       </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>37</v>
       </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>100</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <f>SUM(D9:D14)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f>SUM(E9:E14)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22">
+      <c r="F15" s="20"/>
+      <c r="G15" s="21">
         <f>SUM(G9:G14)</f>
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="E17" s="26"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -1097,222 +1083,222 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>1</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>5</v>
       </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>2</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>26</v>
       </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>3</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>36</v>
       </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>4</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>37</v>
       </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18">
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>104</v>
       </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
+      <c r="D33" s="20">
+        <v>0</v>
+      </c>
+      <c r="E33" s="20">
         <f>SUM(E27:E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22">
+      <c r="F33" s="20"/>
+      <c r="G33" s="21">
         <f>SUM(G27:G32)</f>
         <v>104</v>
       </c>
@@ -1336,18 +1322,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/TestReport/LowHope_TestSystem_Report.xlsx
+++ b/Document/TestReport/LowHope_TestSystem_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System_Test" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -426,9 +426,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,30 +468,33 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal_Functional Test Case v1.0" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Functional Test Case v1.0" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -529,7 +529,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E42455F5-364A-4B81-B04F-281181F87F3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42455F5-364A-4B81-B04F-281181F87F3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -632,6 +632,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -667,6 +684,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -842,10 +876,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -867,229 +901,229 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>5</v>
       </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>25</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>33</v>
       </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
         <v>3</v>
       </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>37</v>
       </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>100</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <f>SUM(D9:D14)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f>SUM(E9:E14)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22">
+      <c r="F15" s="20"/>
+      <c r="G15" s="21">
         <f>SUM(G9:G14)</f>
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="E17" s="26"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -1097,228 +1131,234 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>1</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>5</v>
       </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>2</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>26</v>
       </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>3</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>36</v>
       </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>4</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>37</v>
       </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18">
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>104</v>
       </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
+      <c r="D33" s="20">
+        <v>0</v>
+      </c>
+      <c r="E33" s="20">
         <f>SUM(E27:E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22">
+      <c r="F33" s="20"/>
+      <c r="G33" s="21">
         <f>SUM(G27:G32)</f>
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B21:C21"/>
@@ -1327,12 +1367,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1341,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
